--- a/biology/Médecine/Mariano_de_la_Paz_Graells/Mariano_de_la_Paz_Graells.xlsx
+++ b/biology/Médecine/Mariano_de_la_Paz_Graells/Mariano_de_la_Paz_Graells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mariano de la Paz Graells y de la Agüera, plus connu sous le nom de Mariano de la Paz Graells, né à Tricio, Province de Logroño, le 24 janvier 1809 et mort à Madrid, le 14 février 1898 est un médecin, naturaliste et homme politique espagnol. Il est membre fondateur de l'Académie royale des sciences exactes, physiques et naturelles, dont il est vice-président et président de la section Sciences. Il est l'oncle maternel de l'historien Florencio Janer.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du médecin Ignacio Graells y Ferrer, Mariano de la Paz Graells devient lui-même docteur en médecine et chirurgie, puis professeur d'anatomie comparée à l'Université Centrale et conseiller en agriculture[1]. Il est aussi membre de différentes sociétés et corporations scientifiques, ainsi quesénateur de la Société économique de Barcelone (1881-1884) et de la province de Barcelone (1887-1890)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du médecin Ignacio Graells y Ferrer, Mariano de la Paz Graells devient lui-même docteur en médecine et chirurgie, puis professeur d'anatomie comparée à l'Université Centrale et conseiller en agriculture. Il est aussi membre de différentes sociétés et corporations scientifiques, ainsi quesénateur de la Société économique de Barcelone (1881-1884) et de la province de Barcelone (1887-1890).
 En 1837, Graells est nommé professeur de zoologie au Musée royal des sciences naturelles et directeur du Jardin botanique royal de Madrid. Plus tard il occupe la chaire d'anatomie et physiologie comparée à l'Université Centrale.
-Son œuvre en tant qu'entomologiste est importante, il a publié plus de 75 articles, décrivant de nombreuses espèces nouvelles parmi lesquelles le magnifique lépidoptère Graellsia isabellae dont le nom scientifique dérive de son propre nom de famille[3].
-En 1847 il réalise la première fouille paléontologique systématique de restes de vertébrés en Espagne. Il découvre les restes d'un Elephas antiquus dans le gisement de la colline de San Isidro, aidé par ses élèves et avec la collaboration de Laureano Pérez Arcas et Casiano de Prado[4].
+Son œuvre en tant qu'entomologiste est importante, il a publié plus de 75 articles, décrivant de nombreuses espèces nouvelles parmi lesquelles le magnifique lépidoptère Graellsia isabellae dont le nom scientifique dérive de son propre nom de famille.
+En 1847 il réalise la première fouille paléontologique systématique de restes de vertébrés en Espagne. Il découvre les restes d'un Elephas antiquus dans le gisement de la colline de San Isidro, aidé par ses élèves et avec la collaboration de Laureano Pérez Arcas et Casiano de Prado.
 </t>
         </is>
       </c>
@@ -545,11 +559,47 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mariano de la Paz Graells. 1852. Descripción de un lepidóptero nuevo, perteneciente a la fauna central de España: dedicado a S. M. la Reina Doña Isabel II. Ed. Impr. Eusebio Aguado, 4 p.
-Livres
-Mariano de la Paz Graells. 1889. Las ballenas en las costas oceánicas de España: Noticias recogidas é investigaciones hechas. Volumen 13, Parte 3 de Memorias, Físicas y Naturales de Madrid R. Academia de Ciencias Exactas. Editor Luis Aguado, 115 p.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mariano de la Paz Graells. 1852. Descripción de un lepidóptero nuevo, perteneciente a la fauna central de España: dedicado a S. M. la Reina Doña Isabel II. Ed. Impr. Eusebio Aguado, 4 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mariano_de_la_Paz_Graells</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mariano_de_la_Paz_Graells</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mariano de la Paz Graells. 1889. Las ballenas en las costas oceánicas de España: Noticias recogidas é investigaciones hechas. Volumen 13, Parte 3 de Memorias, Físicas y Naturales de Madrid R. Academia de Ciencias Exactas. Editor Luis Aguado, 115 p.
 ---------------------------------. 1897. Faune mastodológica ibérique. Volume 17 de Mémoires de la Réelle[Quoi ?] Académie de Sciences Exactes, Physiques et Naturels. Éditeur Réel[Quoi ?] Académie de Sciences Exactes, Physiques et Naturels de Madrid, 806 p.
 ---------------------------------. 1879. Prontuario filoxérico: Consacré aux viticultores espagnols et délégués officiels qui aient d'exercer l'indispensable surveillance pour empêcher ou contenir la propagation de la plaie des vignes, produite par la filoxera. Éditeur Établissement tipográfico de Deuxième Martínez, 61 p.
 ---------------------------------. 1873. Applications de l'histoire naturelle à l'art militaire: les pigeonnes dans la guerre : première conférence célébrée en le Ateneo de l'Armée et Armée. 37 p.
@@ -563,34 +613,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mariano_de_la_Paz_Graells</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mariano_de_la_Paz_Graells</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre botanique
-(Brassicaceae) Graellsia Boiss., 1842[5]
+(Brassicaceae) Graellsia Boiss., 1842
 Genre zoologique
 (Saturniidae) Graellsia Grote, 1896
 Espèces zoologiques
